--- a/excel_files/implement_fixes_tester.xlsx
+++ b/excel_files/implement_fixes_tester.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexpiazza/Desktop/for_db/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6AB927-5710-7A4C-AC81-6A6F1468C6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8FC684-7E04-624B-BDB2-6D221CFB2A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="492">
   <si>
     <t>790A_ADDENDUM_B_ATTACHED</t>
   </si>
@@ -527,24 +527,6 @@
   </si>
   <si>
     <t>JO_ORDER_NUMBER</t>
-  </si>
-  <si>
-    <t>PHYSICAL_LOCATION_ADDRESS1</t>
-  </si>
-  <si>
-    <t>PHYSICAL_LOCATION_ADDRESS2</t>
-  </si>
-  <si>
-    <t>PHYSICAL_LOCATION_CITY</t>
-  </si>
-  <si>
-    <t>PHYSICAL_LOCATION_STATE</t>
-  </si>
-  <si>
-    <t>PHYSICAL_LOCATION_POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>PHYSICAL_LOCATION_COUNTY</t>
   </si>
   <si>
     <t>ADDITIONAL_HOUSING_INFORMATION</t>
@@ -1546,6 +1528,9 @@
   </si>
   <si>
     <t>4 Rainbow Rd</t>
+  </si>
+  <si>
+    <t>HOUSING_ADDRESS2</t>
   </si>
 </sst>
 </file>
@@ -1999,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FX11"/>
+  <dimension ref="A1:FT11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ET1" workbookViewId="0">
-      <selection activeCell="EV10" sqref="EV10"/>
+    <sheetView tabSelected="1" topLeftCell="EP1" workbookViewId="0">
+      <selection activeCell="ET1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2042,7 +2027,7 @@
     <col min="74" max="74" width="0.33203125" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="0.1640625" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="19.1640625" customWidth="1"/>
-    <col min="77" max="77" width="12.6640625" customWidth="1"/>
+    <col min="77" max="77" width="67.33203125" customWidth="1"/>
     <col min="78" max="78" width="2" hidden="1" customWidth="1"/>
     <col min="79" max="79" width="6" hidden="1" customWidth="1"/>
     <col min="80" max="85" width="0" hidden="1" customWidth="1"/>
@@ -2082,7 +2067,8 @@
     <col min="140" max="140" width="8.83203125" hidden="1" customWidth="1"/>
     <col min="141" max="144" width="0.1640625" hidden="1" customWidth="1"/>
     <col min="145" max="145" width="1.1640625" hidden="1" customWidth="1"/>
-    <col min="146" max="147" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="146" max="146" width="33.1640625" customWidth="1"/>
+    <col min="147" max="147" width="13.6640625" customWidth="1"/>
     <col min="148" max="148" width="31.33203125" customWidth="1"/>
     <col min="149" max="149" width="25.1640625" customWidth="1"/>
     <col min="150" max="150" width="0.5" customWidth="1"/>
@@ -2102,21 +2088,17 @@
     <col min="166" max="166" width="18" customWidth="1"/>
     <col min="167" max="167" width="13.33203125" customWidth="1"/>
     <col min="168" max="168" width="17" customWidth="1"/>
-    <col min="169" max="169" width="2.1640625" customWidth="1"/>
-    <col min="170" max="170" width="29.6640625" customWidth="1"/>
-    <col min="171" max="171" width="1.5" customWidth="1"/>
-    <col min="172" max="172" width="29" customWidth="1"/>
-    <col min="173" max="173" width="24.33203125" customWidth="1"/>
-    <col min="174" max="174" width="30.83203125" customWidth="1"/>
-    <col min="175" max="175" width="3.83203125" customWidth="1"/>
-    <col min="176" max="176" width="42.6640625" customWidth="1"/>
-    <col min="177" max="177" width="19.6640625" customWidth="1"/>
-    <col min="178" max="178" width="24.6640625" customWidth="1"/>
-    <col min="179" max="179" width="22.33203125" customWidth="1"/>
-    <col min="180" max="180" width="30.33203125" customWidth="1"/>
+    <col min="169" max="169" width="23.33203125" customWidth="1"/>
+    <col min="170" max="170" width="27" customWidth="1"/>
+    <col min="171" max="171" width="33.6640625" customWidth="1"/>
+    <col min="172" max="172" width="42.6640625" customWidth="1"/>
+    <col min="173" max="173" width="19.6640625" customWidth="1"/>
+    <col min="174" max="174" width="24.6640625" customWidth="1"/>
+    <col min="175" max="175" width="22.33203125" customWidth="1"/>
+    <col min="176" max="176" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:176" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2625,72 +2607,60 @@
         <v>168</v>
       </c>
       <c r="FN1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="FP1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="FO1" s="2" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="FP1" s="2" t="s">
+      <c r="FR1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2" t="s">
+      <c r="FS1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="FR1" s="2" t="s">
+      <c r="FT1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="FS1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:176" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="FT1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="FU1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="FV1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="FW1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="FX1" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:180" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="F2" s="3">
         <v>36</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AC2" s="4">
         <v>44081.046661898137</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="BF2" s="4">
         <v>44120</v>
@@ -2702,58 +2672,58 @@
         <v>1</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="BX2" s="3">
         <v>13323</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="CD2" s="3">
         <v>45</v>
       </c>
       <c r="CE2" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="CG2" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="CT2" s="3">
         <v>21</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="DK2" s="4">
         <v>44062</v>
       </c>
       <c r="DW2" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="EA2" s="3">
         <v>80</v>
@@ -2768,34 +2738,34 @@
         <v>45</v>
       </c>
       <c r="EK2" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="EM2" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="EN2" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="EO2" s="3">
         <v>11.71</v>
       </c>
       <c r="EP2" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="ER2" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="ES2" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="ET2" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="EU2" s="3">
         <v>12604</v>
       </c>
       <c r="EV2" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="EX2" s="3">
         <v>1</v>
@@ -2807,10 +2777,10 @@
         <v>0.5</v>
       </c>
       <c r="FB2" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="FC2" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="FD2" s="3">
         <v>26.816123999999999</v>
@@ -2819,16 +2789,16 @@
         <v>-81.527452999999994</v>
       </c>
       <c r="FG2" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH2" s="3">
         <v>1</v>
       </c>
       <c r="FI2" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="FJ2" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="FK2" s="3">
         <v>26.813578</v>
@@ -2837,39 +2807,39 @@
         <v>-81.532381000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:180" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:176" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F3" s="3">
         <v>35</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AC3" s="4">
         <v>44081.046661898137</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="BF3" s="4">
         <v>44105</v>
@@ -2881,61 +2851,61 @@
         <v>1</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="CD3" s="3">
         <v>160</v>
       </c>
       <c r="CE3" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="CG3" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="CT3" s="3">
         <v>28</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="DG3" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="DH3" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="DI3" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="DK3" s="4">
         <v>44062</v>
       </c>
       <c r="DW3" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="EA3" s="3">
         <v>124</v>
@@ -2950,34 +2920,34 @@
         <v>160</v>
       </c>
       <c r="EK3" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="EM3" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="EN3" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="EO3" s="3">
         <v>12.91</v>
       </c>
       <c r="EP3" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="ER3" s="3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="ES3" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="ET3" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="EU3" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="EV3" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="EX3" s="3">
         <v>3</v>
@@ -2989,10 +2959,10 @@
         <v>0.8</v>
       </c>
       <c r="FB3" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="FC3" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="FD3" s="3">
         <v>1</v>
@@ -3001,13 +2971,13 @@
         <v>1</v>
       </c>
       <c r="FG3" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH3" s="3">
         <v>1</v>
       </c>
       <c r="FI3" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="FK3" s="3">
         <v>32.701461000000002</v>
@@ -3016,7 +2986,7 @@
         <v>-114.65723199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:180" s="7" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:176" s="7" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="b">
         <v>1</v>
       </c>
@@ -3030,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7">
         <v>45</v>
@@ -3039,37 +3009,37 @@
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="N4" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="W4" s="7" t="b">
         <v>0</v>
@@ -3081,7 +3051,7 @@
         <v>44012</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AA4" s="7" t="b">
         <v>0</v>
@@ -3093,64 +3063,64 @@
         <v>44081.712273441517</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AE4" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AF4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="AI4" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AJ4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="AM4" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AS4" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AT4" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AU4" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AV4" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AX4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AZ4" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="BB4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BC4" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="BE4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BF4" s="8">
         <v>44053</v>
@@ -3168,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="BL4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BM4" s="7" t="b">
         <v>1</v>
@@ -3180,16 +3150,16 @@
         <v>1</v>
       </c>
       <c r="BP4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="BQ4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="BR4" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="BS4" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="BT4" s="7" t="b">
         <v>1</v>
@@ -3201,31 +3171,31 @@
         <v>1</v>
       </c>
       <c r="BW4" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="BX4" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY4" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="BZ4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="CA4" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="CB4" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="CC4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="CE4" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="CI4" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="CJ4" s="7">
         <v>75</v>
@@ -3249,22 +3219,22 @@
         <v>9</v>
       </c>
       <c r="CQ4" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="CR4" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="CS4" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="CR4" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="CS4" s="7" t="s">
-        <v>414</v>
-      </c>
       <c r="CV4" s="7" t="b">
         <v>0</v>
       </c>
       <c r="CX4" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="CY4" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="DK4" s="8">
         <v>43999.867679976851</v>
@@ -3282,25 +3252,25 @@
         <v>0</v>
       </c>
       <c r="DP4" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="DQ4" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="DR4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="DS4" s="7">
+        <v>0</v>
+      </c>
+      <c r="DU4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DW4" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="DR4" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="DS4" s="7">
-        <v>0</v>
-      </c>
-      <c r="DU4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DV4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="DW4" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="DX4" s="7">
         <v>9</v>
@@ -3336,16 +3306,16 @@
         <v>9</v>
       </c>
       <c r="EJ4" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="EK4" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="EL4" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="EM4" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="EO4" s="7">
         <v>14.99</v>
@@ -3354,19 +3324,19 @@
         <v>9</v>
       </c>
       <c r="ER4" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="ES4" s="3" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="ET4" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="EU4" s="3">
         <v>12604</v>
       </c>
       <c r="EV4" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="EW4" s="7" t="b">
         <v>1</v>
@@ -3381,7 +3351,7 @@
         <v>0.8</v>
       </c>
       <c r="FB4" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="FD4" s="7">
         <v>44.757694000000001</v>
@@ -3390,16 +3360,16 @@
         <v>-96.681496999999993</v>
       </c>
       <c r="FG4" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH4" s="7">
         <v>0.9</v>
       </c>
       <c r="FI4" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="FJ4" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="FK4" s="7">
         <v>44.646363999999998</v>
@@ -3408,7 +3378,7 @@
         <v>-98.038400999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:180" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:176" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="b">
         <v>0</v>
       </c>
@@ -3422,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F5" s="3">
         <v>40</v>
@@ -3431,40 +3401,40 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="U5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="W5" s="3" t="b">
         <v>1</v>
@@ -3476,7 +3446,7 @@
         <v>44011</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AA5" s="3" t="b">
         <v>0</v>
@@ -3488,70 +3458,70 @@
         <v>44081.712273441517</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AE5" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AF5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="AH5" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AX5" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="BB5" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BC5" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BF5" s="4">
         <v>44044</v>
@@ -3569,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="BL5" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BM5" s="3" t="b">
         <v>1</v>
@@ -3581,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="BP5" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="BQ5" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="BR5" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="BS5" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="BT5" s="3" t="b">
         <v>1</v>
@@ -3602,31 +3572,31 @@
         <v>0</v>
       </c>
       <c r="BW5" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="BX5" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="BY5" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BZ5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CA5" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="CB5" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="CC5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="CE5" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="CI5" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="CJ5" s="3">
         <v>100</v>
@@ -3650,37 +3620,37 @@
         <v>8</v>
       </c>
       <c r="CQ5" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="CS5" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="CV5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="CS5" s="3" t="s">
+      <c r="CZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="DB5" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="DC5" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="CV5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="3" t="s">
+      <c r="DD5" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="CZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="3" t="s">
+      <c r="DE5" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="DB5" s="3" t="s">
+      <c r="DF5" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="DC5" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="DD5" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="DE5" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="DF5" s="3" t="s">
-        <v>425</v>
       </c>
       <c r="DK5" s="4">
         <v>43999.724577893518</v>
@@ -3698,10 +3668,10 @@
         <v>0</v>
       </c>
       <c r="DP5" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="DQ5" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DS5" s="3">
         <v>0</v>
@@ -3713,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="DW5" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="DX5" s="3">
         <v>8</v>
@@ -3749,40 +3719,40 @@
         <v>8</v>
       </c>
       <c r="EJ5" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="EK5" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="EL5" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="EM5" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="EO5" s="3">
         <v>13.62</v>
       </c>
       <c r="EP5" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="EQ5" s="3">
         <v>8</v>
       </c>
       <c r="ER5" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="ES5" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="ET5" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="EU5" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="EV5" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="EW5" s="3" t="b">
         <v>0</v>
@@ -3797,10 +3767,10 @@
         <v>0.6</v>
       </c>
       <c r="FB5" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="FC5" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="FD5" s="3">
         <v>22</v>
@@ -3809,16 +3779,16 @@
         <v>21</v>
       </c>
       <c r="FG5" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH5" s="3">
         <v>1</v>
       </c>
       <c r="FI5" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="FJ5" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="FK5" s="3">
         <v>33</v>
@@ -3827,7 +3797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:180" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="b">
         <v>0</v>
       </c>
@@ -3841,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
@@ -3850,43 +3820,43 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="W6" s="3" t="b">
         <v>0</v>
@@ -3898,7 +3868,7 @@
         <v>44005</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AA6" s="3" t="b">
         <v>0</v>
@@ -3910,70 +3880,70 @@
         <v>44081.712273441517</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AE6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AF6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="AH6" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL6" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AT6" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AV6" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AX6" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="BB6" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BC6" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BF6" s="4">
         <v>44053</v>
@@ -3991,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="BL6" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BM6" s="3" t="b">
         <v>1</v>
@@ -4003,16 +3973,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BQ6" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="BR6" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="BS6" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="BT6" s="3" t="b">
         <v>1</v>
@@ -4024,31 +3994,31 @@
         <v>1</v>
       </c>
       <c r="BW6" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="BX6" s="3">
         <v>13323</v>
       </c>
       <c r="BY6" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="BZ6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CA6" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="CB6" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="CC6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CE6" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="CI6" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="CJ6" s="3">
         <v>60</v>
@@ -4072,31 +4042,31 @@
         <v>8.5</v>
       </c>
       <c r="CQ6" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="CS6" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="CV6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CX6" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="DB6" s="3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="DC6" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="DD6" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="DE6" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="DF6" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="DK6" s="4">
         <v>43998.722585995369</v>
@@ -4114,10 +4084,10 @@
         <v>7.5</v>
       </c>
       <c r="DP6" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="DQ6" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="DS6" s="3">
         <v>0</v>
@@ -4129,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="DW6" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="DX6" s="3">
         <v>8.5</v>
@@ -4165,40 +4135,40 @@
         <v>8.5</v>
       </c>
       <c r="EJ6" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="EK6" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="EL6" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="EL6" s="3" t="s">
-        <v>458</v>
-      </c>
       <c r="EM6" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="EO6" s="3">
         <v>14.26</v>
       </c>
       <c r="EP6" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="EQ6" s="3">
         <v>8.5</v>
       </c>
       <c r="ER6" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="ES6" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="ET6" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="EU6" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="EV6" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="EW6" s="3" t="b">
         <v>0</v>
@@ -4213,10 +4183,10 @@
         <v>0.9</v>
       </c>
       <c r="FB6" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="FC6" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="FD6" s="3">
         <v>38.81033</v>
@@ -4225,16 +4195,16 @@
         <v>-104.71855499999999</v>
       </c>
       <c r="FG6" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH6" s="3">
         <v>1</v>
       </c>
       <c r="FI6" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="FJ6" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="FK6" s="3">
         <v>100</v>
@@ -4243,7 +4213,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:180" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:176" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="b">
         <v>0</v>
       </c>
@@ -4257,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="3">
         <v>48</v>
@@ -4266,43 +4236,43 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="3">
         <v>104</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="W7" s="3" t="b">
         <v>0</v>
@@ -4314,7 +4284,7 @@
         <v>44011</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AA7" s="3" t="b">
         <v>0</v>
@@ -4326,64 +4296,64 @@
         <v>44081.712273441517</v>
       </c>
       <c r="AD7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AF7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="AI7" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AT7" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AV7" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AX7" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="BB7" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="BC7" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="BF7" s="4">
         <v>44032</v>
@@ -4401,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BM7" s="3" t="b">
         <v>1</v>
@@ -4413,52 +4383,52 @@
         <v>0</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BQ7" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="BR7" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="BS7" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="BS7" s="3" t="s">
+      <c r="BT7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="BT7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="BX7" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BY7" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="BZ7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="CB7" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="CC7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CE7" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="CI7" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="CJ7" s="3">
         <v>60</v>
@@ -4482,19 +4452,19 @@
         <v>8</v>
       </c>
       <c r="CQ7" s="3" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="CS7" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="CV7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CX7" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="CY7" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="DK7" s="4">
         <v>43994.765891782408</v>
@@ -4512,10 +4482,10 @@
         <v>8</v>
       </c>
       <c r="DP7" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="DQ7" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="DS7" s="3">
         <v>0</v>
@@ -4527,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="DW7" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="DX7" s="3">
         <v>8</v>
@@ -4563,40 +4533,40 @@
         <v>8</v>
       </c>
       <c r="EJ7" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="EK7" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="EL7" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="EM7" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="EO7" s="3">
         <v>15.83</v>
       </c>
       <c r="EP7" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="EQ7" s="3">
         <v>8</v>
       </c>
       <c r="ER7" s="3" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="ES7" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="ET7" s="3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="EU7" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="EV7" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="EW7" s="3" t="b">
         <v>0</v>
@@ -4611,10 +4581,10 @@
         <v>0.67</v>
       </c>
       <c r="FB7" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="FC7" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="FD7" s="3">
         <v>47.232512999999997</v>
@@ -4623,13 +4593,13 @@
         <v>-122.359432</v>
       </c>
       <c r="FG7" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH7" s="3">
         <v>0.9</v>
       </c>
       <c r="FI7" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="FK7" s="3">
         <v>47.223951999999997</v>
@@ -4638,7 +4608,7 @@
         <v>-122.35720000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:180" s="3" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:176" s="3" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="b">
         <v>1</v>
       </c>
@@ -4652,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F8" s="3">
         <v>35</v>
@@ -4661,40 +4631,40 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="W8" s="3" t="b">
         <v>0</v>
@@ -4706,7 +4676,7 @@
         <v>44008</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AA8" s="3" t="b">
         <v>0</v>
@@ -4718,64 +4688,64 @@
         <v>44081.712273441517</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AE8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AF8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="AI8" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AO8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS8" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AQ8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AT8" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AV8" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AX8" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="BC8" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="BF8" s="4">
         <v>44040</v>
@@ -4793,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="BL8" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="BM8" s="3" t="b">
         <v>1</v>
@@ -4805,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="BP8" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BQ8" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="BR8" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BS8" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="BT8" s="3" t="b">
         <v>1</v>
@@ -4826,31 +4796,31 @@
         <v>1</v>
       </c>
       <c r="BW8" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="BX8" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="BY8" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="BZ8" s="3" t="b">
         <v>1</v>
       </c>
       <c r="CA8" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="CB8" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="CC8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="CI8" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="CJ8" s="3">
         <v>50</v>
@@ -4871,28 +4841,28 @@
         <v>7</v>
       </c>
       <c r="CQ8" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="CR8" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="CS8" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="CR8" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="CS8" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="CV8" s="3" t="b">
         <v>0</v>
       </c>
       <c r="CX8" s="3" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="CY8" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="CZ8" s="3">
         <v>0.03</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="DK8" s="4">
         <v>43993.68044398148</v>
@@ -4910,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="DP8" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="DQ8" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DR8" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="DS8" s="3">
         <v>0</v>
@@ -4928,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="DW8" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="DX8" s="3">
         <v>7</v>
@@ -4964,16 +4934,16 @@
         <v>7</v>
       </c>
       <c r="EJ8" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="EK8" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="EL8" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="EM8" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="EL8" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="EM8" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="EO8" s="3">
         <v>14.4</v>
@@ -4982,19 +4952,19 @@
         <v>7</v>
       </c>
       <c r="ER8" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="ES8" s="3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="ET8" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="EU8" s="3">
         <v>11111</v>
       </c>
       <c r="EV8" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="EW8" s="3" t="b">
         <v>1</v>
@@ -5009,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="FB8" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="FD8" s="3">
         <v>44.080441999999998</v>
@@ -5018,16 +4988,16 @@
         <v>-88.932912999999999</v>
       </c>
       <c r="FG8" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH8" s="3">
         <v>1</v>
       </c>
       <c r="FI8" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="FJ8" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="FK8" s="3">
         <v>43.915725999999999</v>
@@ -5036,39 +5006,39 @@
         <v>-89.027124000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:180" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:176" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F9" s="3">
         <v>57</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AC9" s="4">
         <v>43973</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="BC9" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="BF9" s="4">
         <v>44018</v>
@@ -5080,43 +5050,43 @@
         <v>0</v>
       </c>
       <c r="CB9" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="CD9" s="3">
         <v>5</v>
       </c>
       <c r="CE9" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="CG9" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="CH9" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="CT9" s="3">
         <v>9</v>
       </c>
       <c r="CY9" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="DG9" s="3" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="DH9" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="DI9" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="DJ9" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="DK9" s="4">
         <v>43962</v>
       </c>
       <c r="DW9" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="EA9" s="3">
         <v>5</v>
@@ -5131,46 +5101,46 @@
         <v>5</v>
       </c>
       <c r="EK9" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="EM9" s="3" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="EN9" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="EO9" s="3">
         <v>14.29</v>
       </c>
       <c r="ER9" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="ES9" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="ET9" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="EU9" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="EV9" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="EX9" s="3">
         <v>0</v>
       </c>
       <c r="EY9" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="EZ9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="FG9" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FJ9" s="3" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="FK9" s="3">
         <v>3</v>
@@ -5179,39 +5149,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:180" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:176" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F10" s="3">
         <v>35</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AC10" s="4">
         <v>43973</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="BC10" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="BF10" s="4">
         <v>43997</v>
@@ -5223,61 +5193,61 @@
         <v>0</v>
       </c>
       <c r="BL10" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BR10" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="BS10" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="BW10" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BX10" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="BY10" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="CB10" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="CD10" s="3">
         <v>65</v>
       </c>
       <c r="CE10" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="CG10" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="CH10" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="CT10" s="3">
         <v>16</v>
       </c>
       <c r="CY10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="DG10" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="DH10" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="DI10" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="DJ10" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="DK10" s="4">
         <v>43955</v>
       </c>
       <c r="DW10" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="EA10" s="3">
         <v>65</v>
@@ -5292,37 +5262,37 @@
         <v>65</v>
       </c>
       <c r="EK10" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="EM10" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="EN10" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="EO10" s="3">
         <v>14.77</v>
       </c>
       <c r="ER10" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="ES10" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="ET10" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="EU10" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="EV10" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="EX10" s="3">
         <v>0</v>
       </c>
       <c r="EY10" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="EZ10" s="3" t="b">
         <v>1</v>
@@ -5331,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="FB10" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="FC10" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="FD10" s="3">
         <v>36.849379999999996</v>
@@ -5343,16 +5313,16 @@
         <v>-121.402368</v>
       </c>
       <c r="FG10" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="FH10" s="3">
         <v>1</v>
       </c>
       <c r="FI10" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="FJ10" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="FK10" s="3">
         <v>36.651744999999998</v>
@@ -5361,9 +5331,21 @@
         <v>-121.59944400000001</v>
       </c>
     </row>
-    <row r="11" spans="1:180" s="3" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:176" s="3" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U11" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+      <c r="BR11" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="BS11" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="BX11" s="3">
+        <v>12604</v>
+      </c>
+      <c r="BY11" s="3" t="s">
+        <v>483</v>
       </c>
       <c r="EA11" s="3">
         <v>11</v>
@@ -5372,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="EK11" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="EZ11" s="3" t="b">
         <v>1</v>
@@ -5381,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="FB11" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="FC11" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="FD11" s="3">
         <v>40.217382000000001</v>
@@ -5393,37 +5375,25 @@
         <v>-104.712141</v>
       </c>
       <c r="FG11" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="FM11" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="FN11" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="FP11" s="3" t="s">
-        <v>491</v>
+        <v>475</v>
+      </c>
+      <c r="FO11" s="3" t="s">
+        <v>476</v>
       </c>
       <c r="FQ11" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="FR11" s="3">
-        <v>12604</v>
+        <v>477</v>
+      </c>
+      <c r="FR11" s="3" t="s">
+        <v>477</v>
       </c>
       <c r="FS11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="FU11" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="FV11" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="FW11" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="FX11" s="3" t="s">
-        <v>444</v>
+        <v>477</v>
+      </c>
+      <c r="FT11" s="3" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
